--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder CAPS201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite CourtOrder CAPS201819.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Court Order and Student Loan Project\input sheet for scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF7D2A51-92D0-4290-9967-F30631307700}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="10_ncr:8100000_{CF7D2A51-92D0-4290-9967-F30631307700}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="CAPSIOAndPayroll" sheetId="2" r:id="rId2"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="CAPSIOAndPayroll" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -183,6 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,42 +236,42 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -325,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +483,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -491,13 +492,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -507,7 +508,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -516,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,12 +536,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -571,7 +572,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -590,7 +591,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -602,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="2" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -645,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="60" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -660,13 +661,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -675,29 +676,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="32.25" r="1" s="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -774,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="45" r="2" s="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -844,7 +845,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>